--- a/outputy.xlsx
+++ b/outputy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A2"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,206 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Links</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Links</t>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/laithkayat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_vandybsa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nahomhailu__/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/amberhaelan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sh0yuuu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/katherine.fairr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chris_yankah/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/caleb.bulcha/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/2bevisual/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/samcolemandancer/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elizabethpalazzolo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/azizmedhioub/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/koryn.janae/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/s.h.a.n.a.m.i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/milla_nguyen.co/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/swophia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theiyannosphere/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/aaron_and_phish/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/violet_png/</t>
         </is>
       </c>
     </row>
